--- a/data/pca/factorExposure/factorExposure_2016-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0112169684645443</v>
+        <v>0.01314378660667962</v>
       </c>
       <c r="C2">
-        <v>-0.05260380124707067</v>
+        <v>0.04241567167333773</v>
       </c>
       <c r="D2">
-        <v>-0.03903203485046387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06238149788144614</v>
+      </c>
+      <c r="E2">
+        <v>-0.0689209514015114</v>
+      </c>
+      <c r="F2">
+        <v>-0.06880259984010496</v>
+      </c>
+      <c r="G2">
+        <v>0.03422417256876118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.062309454072826</v>
+        <v>0.0304340286735827</v>
       </c>
       <c r="C3">
-        <v>-0.0931878150004404</v>
+        <v>0.08130191808164003</v>
       </c>
       <c r="D3">
-        <v>-0.09969997368822102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08743866058820765</v>
+      </c>
+      <c r="E3">
+        <v>-0.07757730084502691</v>
+      </c>
+      <c r="F3">
+        <v>0.01386098461237912</v>
+      </c>
+      <c r="G3">
+        <v>-0.03639933072721037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06689118302663405</v>
+        <v>0.05787100598667667</v>
       </c>
       <c r="C4">
-        <v>-0.05865945062309609</v>
+        <v>0.0660159339549809</v>
       </c>
       <c r="D4">
-        <v>-0.0279245019801759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05840788103456882</v>
+      </c>
+      <c r="E4">
+        <v>-0.06920431422684696</v>
+      </c>
+      <c r="F4">
+        <v>-0.07746437504190806</v>
+      </c>
+      <c r="G4">
+        <v>-0.03979595229815776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04060996793047847</v>
+        <v>0.03521772991969625</v>
       </c>
       <c r="C6">
-        <v>-0.03701015640643959</v>
+        <v>0.03119612838930443</v>
       </c>
       <c r="D6">
-        <v>-0.03082420009867864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06272057393160575</v>
+      </c>
+      <c r="E6">
+        <v>-0.07330834611836554</v>
+      </c>
+      <c r="F6">
+        <v>-0.0596605014444211</v>
+      </c>
+      <c r="G6">
+        <v>-0.02347535581196738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.022830437734881</v>
+        <v>0.01867008180765998</v>
       </c>
       <c r="C7">
-        <v>-0.04417956548025987</v>
+        <v>0.03946226270231466</v>
       </c>
       <c r="D7">
-        <v>0.006530429770902082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03628767721470971</v>
+      </c>
+      <c r="E7">
+        <v>-0.04929969970024799</v>
+      </c>
+      <c r="F7">
+        <v>-0.09892840894648797</v>
+      </c>
+      <c r="G7">
+        <v>-0.008727281730277996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002494337110991357</v>
+        <v>0.003027543804169835</v>
       </c>
       <c r="C8">
-        <v>-0.02721017548834647</v>
+        <v>0.02882816420032098</v>
       </c>
       <c r="D8">
-        <v>-0.03077426469751624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03089109429930523</v>
+      </c>
+      <c r="E8">
+        <v>-0.0499074365833256</v>
+      </c>
+      <c r="F8">
+        <v>-0.03936466459663168</v>
+      </c>
+      <c r="G8">
+        <v>-0.01065198627629291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03684357678814684</v>
+        <v>0.03653010252180028</v>
       </c>
       <c r="C9">
-        <v>-0.04382501856324025</v>
+        <v>0.0525449715452451</v>
       </c>
       <c r="D9">
-        <v>-0.0147345875592763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04236188053527055</v>
+      </c>
+      <c r="E9">
+        <v>-0.05719098620554688</v>
+      </c>
+      <c r="F9">
+        <v>-0.08484861270565537</v>
+      </c>
+      <c r="G9">
+        <v>-0.02438999167251174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06886483596429005</v>
+        <v>0.09939249204631417</v>
       </c>
       <c r="C10">
-        <v>0.1996603375587232</v>
+        <v>-0.1956851285794104</v>
       </c>
       <c r="D10">
-        <v>0.01232248175519331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006024567407966208</v>
+      </c>
+      <c r="E10">
+        <v>-0.04455416621445808</v>
+      </c>
+      <c r="F10">
+        <v>-0.04093553696002167</v>
+      </c>
+      <c r="G10">
+        <v>-0.009788188216436365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04235997321967683</v>
+        <v>0.0364127574901041</v>
       </c>
       <c r="C11">
-        <v>-0.05387093529559633</v>
+        <v>0.0515114635541515</v>
       </c>
       <c r="D11">
-        <v>-0.01323011582956197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03369418148642282</v>
+      </c>
+      <c r="E11">
+        <v>-0.01590142010879464</v>
+      </c>
+      <c r="F11">
+        <v>-0.06485927892805675</v>
+      </c>
+      <c r="G11">
+        <v>-0.01592028024423593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04214848109008277</v>
+        <v>0.03724614463388772</v>
       </c>
       <c r="C12">
-        <v>-0.0481689038777743</v>
+        <v>0.04763420810428004</v>
       </c>
       <c r="D12">
-        <v>-0.001193676127632712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02511582086452119</v>
+      </c>
+      <c r="E12">
+        <v>-0.02347728180507815</v>
+      </c>
+      <c r="F12">
+        <v>-0.06645114907467499</v>
+      </c>
+      <c r="G12">
+        <v>-0.01287839217949919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01769865467879141</v>
+        <v>0.01228342912441158</v>
       </c>
       <c r="C13">
-        <v>-0.04897170761211261</v>
+        <v>0.04319187770058004</v>
       </c>
       <c r="D13">
-        <v>-0.0214984843146626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05940219603832986</v>
+      </c>
+      <c r="E13">
+        <v>-0.08246859623919028</v>
+      </c>
+      <c r="F13">
+        <v>-0.1001145644381923</v>
+      </c>
+      <c r="G13">
+        <v>-0.02104953624743113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008330872918684585</v>
+        <v>0.004853215237094933</v>
       </c>
       <c r="C14">
-        <v>-0.03502725360063663</v>
+        <v>0.03211267812509819</v>
       </c>
       <c r="D14">
-        <v>0.01427899379273771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02469632717855557</v>
+      </c>
+      <c r="E14">
+        <v>-0.03839089086480658</v>
+      </c>
+      <c r="F14">
+        <v>-0.09477333180057194</v>
+      </c>
+      <c r="G14">
+        <v>0.006294403378828913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0007057445059099664</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005575546508282592</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006573699491800391</v>
+      </c>
+      <c r="E15">
+        <v>-0.001846717432887442</v>
+      </c>
+      <c r="F15">
+        <v>-0.004586466014588559</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004136773781784553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03867486615877323</v>
+        <v>0.03382464365100517</v>
       </c>
       <c r="C16">
-        <v>-0.0459651589831775</v>
+        <v>0.04538658488533297</v>
       </c>
       <c r="D16">
-        <v>-0.006912475848710422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0268608092864373</v>
+      </c>
+      <c r="E16">
+        <v>-0.03007066525112808</v>
+      </c>
+      <c r="F16">
+        <v>-0.06778107797112619</v>
+      </c>
+      <c r="G16">
+        <v>-0.002428319309415989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02669364773899679</v>
+        <v>0.01636419337893692</v>
       </c>
       <c r="C19">
-        <v>-0.0624173215073693</v>
+        <v>0.05064346053576994</v>
       </c>
       <c r="D19">
-        <v>-0.07599923924173221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08915945927880849</v>
+      </c>
+      <c r="E19">
+        <v>-0.09985389790798214</v>
+      </c>
+      <c r="F19">
+        <v>-0.07584056597056589</v>
+      </c>
+      <c r="G19">
+        <v>0.02120213052532417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01904969619684669</v>
+        <v>0.01346608876118539</v>
       </c>
       <c r="C20">
-        <v>-0.04389470616103137</v>
+        <v>0.041078001072006</v>
       </c>
       <c r="D20">
-        <v>-0.01556265828937918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03612930081034642</v>
+      </c>
+      <c r="E20">
+        <v>-0.0687917422486054</v>
+      </c>
+      <c r="F20">
+        <v>-0.07957956793708965</v>
+      </c>
+      <c r="G20">
+        <v>-0.006224182962343664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01370982799000399</v>
+        <v>0.009075058758144678</v>
       </c>
       <c r="C21">
-        <v>-0.04755616515072166</v>
+        <v>0.04512456287362305</v>
       </c>
       <c r="D21">
-        <v>-0.03750039687701157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06577347875310255</v>
+      </c>
+      <c r="E21">
+        <v>-0.09646720271187741</v>
+      </c>
+      <c r="F21">
+        <v>-0.1231320659240103</v>
+      </c>
+      <c r="G21">
+        <v>-0.009949619155499283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002080433286749278</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02342264992193247</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03582715601095464</v>
+      </c>
+      <c r="E22">
+        <v>-0.02792284120288084</v>
+      </c>
+      <c r="F22">
+        <v>-0.01544763593995836</v>
+      </c>
+      <c r="G22">
+        <v>-0.03947246189012322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002149574330672218</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0235507571501204</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03548558910998165</v>
+      </c>
+      <c r="E23">
+        <v>-0.02817969626417723</v>
+      </c>
+      <c r="F23">
+        <v>-0.01527645000807421</v>
+      </c>
+      <c r="G23">
+        <v>-0.03967527751666657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03419202467381363</v>
+        <v>0.03356066161289496</v>
       </c>
       <c r="C24">
-        <v>-0.05011463165685526</v>
+        <v>0.05338662469037526</v>
       </c>
       <c r="D24">
-        <v>-0.006388193460898943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02607147809080601</v>
+      </c>
+      <c r="E24">
+        <v>-0.02717763310310243</v>
+      </c>
+      <c r="F24">
+        <v>-0.07632026045104708</v>
+      </c>
+      <c r="G24">
+        <v>-0.01021485127344625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04894430313841992</v>
+        <v>0.04386977185882309</v>
       </c>
       <c r="C25">
-        <v>-0.05925650407166169</v>
+        <v>0.05669370710779056</v>
       </c>
       <c r="D25">
-        <v>0.002796664822702175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02466562061441707</v>
+      </c>
+      <c r="E25">
+        <v>-0.02169908836179375</v>
+      </c>
+      <c r="F25">
+        <v>-0.0783864804366303</v>
+      </c>
+      <c r="G25">
+        <v>-0.02714423039525084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01669581637119278</v>
+        <v>0.01374001701156662</v>
       </c>
       <c r="C26">
-        <v>-0.01430693917357571</v>
+        <v>0.01695693868551662</v>
       </c>
       <c r="D26">
-        <v>0.001690661712139159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02379340108211461</v>
+      </c>
+      <c r="E26">
+        <v>-0.038970029121322</v>
+      </c>
+      <c r="F26">
+        <v>-0.0685601522449004</v>
+      </c>
+      <c r="G26">
+        <v>0.01326083584192478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08023617924183342</v>
+        <v>0.1342783144010122</v>
       </c>
       <c r="C28">
-        <v>0.2354197445343413</v>
+        <v>-0.2457681102594681</v>
       </c>
       <c r="D28">
-        <v>0.0111991456042807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02200111181908265</v>
+      </c>
+      <c r="E28">
+        <v>-0.04658481047418835</v>
+      </c>
+      <c r="F28">
+        <v>-0.05754431074665285</v>
+      </c>
+      <c r="G28">
+        <v>-0.02295682956054039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00971738724100457</v>
+        <v>0.005945919534963298</v>
       </c>
       <c r="C29">
-        <v>-0.02816214842105386</v>
+        <v>0.02757972040910607</v>
       </c>
       <c r="D29">
-        <v>0.0192933446464241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01867109577578696</v>
+      </c>
+      <c r="E29">
+        <v>-0.03870632416824143</v>
+      </c>
+      <c r="F29">
+        <v>-0.0882651248308223</v>
+      </c>
+      <c r="G29">
+        <v>-0.006209391765492774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05382420975278452</v>
+        <v>0.04199359379974183</v>
       </c>
       <c r="C30">
-        <v>-0.05805593053785293</v>
+        <v>0.06380548407971842</v>
       </c>
       <c r="D30">
-        <v>-0.07046871527505037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1060826403261101</v>
+      </c>
+      <c r="E30">
+        <v>-0.06491985228510389</v>
+      </c>
+      <c r="F30">
+        <v>-0.09186184521730026</v>
+      </c>
+      <c r="G30">
+        <v>0.01266309480965713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05509939383141246</v>
+        <v>0.05474597571393332</v>
       </c>
       <c r="C31">
-        <v>-0.03302366759684617</v>
+        <v>0.0551570737231423</v>
       </c>
       <c r="D31">
-        <v>0.03060726930078863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01293395181424408</v>
+      </c>
+      <c r="E31">
+        <v>-0.05668192482625646</v>
+      </c>
+      <c r="F31">
+        <v>-0.07430779411543427</v>
+      </c>
+      <c r="G31">
+        <v>-0.04934524967123131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002368400394714632</v>
+        <v>0.004927462608491372</v>
       </c>
       <c r="C32">
-        <v>-0.04343679004124151</v>
+        <v>0.03418945146310738</v>
       </c>
       <c r="D32">
-        <v>-0.04213564023899818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05097632680052821</v>
+      </c>
+      <c r="E32">
+        <v>-0.03995457559100434</v>
+      </c>
+      <c r="F32">
+        <v>-0.06556738816321228</v>
+      </c>
+      <c r="G32">
+        <v>0.009530242992972631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03007662620424795</v>
+        <v>0.02466801665996618</v>
       </c>
       <c r="C33">
-        <v>-0.06102363233989264</v>
+        <v>0.05541945317726421</v>
       </c>
       <c r="D33">
-        <v>-0.04286868390380968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07625517901166756</v>
+      </c>
+      <c r="E33">
+        <v>-0.07239909857822142</v>
+      </c>
+      <c r="F33">
+        <v>-0.1181792393480336</v>
+      </c>
+      <c r="G33">
+        <v>-0.02266522949883754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04678976521049553</v>
+        <v>0.04099639116643512</v>
       </c>
       <c r="C34">
-        <v>-0.06458131948478245</v>
+        <v>0.06377359731740044</v>
       </c>
       <c r="D34">
-        <v>-0.008951186608240489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03391279967776264</v>
+      </c>
+      <c r="E34">
+        <v>-0.00249355620086586</v>
+      </c>
+      <c r="F34">
+        <v>-0.07818131729902776</v>
+      </c>
+      <c r="G34">
+        <v>-0.01190457198156029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01376393773094951</v>
+        <v>0.01297344423100348</v>
       </c>
       <c r="C36">
-        <v>-0.0163225897170879</v>
+        <v>0.01280798438709776</v>
       </c>
       <c r="D36">
-        <v>0.003779447018062417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02531896084705014</v>
+      </c>
+      <c r="E36">
+        <v>-0.04555065329679184</v>
+      </c>
+      <c r="F36">
+        <v>-0.07543292071818096</v>
+      </c>
+      <c r="G36">
+        <v>-0.01042923328588603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03131452830160023</v>
+        <v>0.02421464567635693</v>
       </c>
       <c r="C38">
-        <v>-0.0285517554300653</v>
+        <v>0.02490705922429937</v>
       </c>
       <c r="D38">
-        <v>0.007263253864322406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02402267206942514</v>
+      </c>
+      <c r="E38">
+        <v>-0.04428763511317087</v>
+      </c>
+      <c r="F38">
+        <v>-0.06198583546046402</v>
+      </c>
+      <c r="G38">
+        <v>-0.005655431498204448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04613947297016441</v>
+        <v>0.03953676261867847</v>
       </c>
       <c r="C39">
-        <v>-0.07197027686258535</v>
+        <v>0.06826308506109539</v>
       </c>
       <c r="D39">
-        <v>-0.02500105867615753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05227058455485051</v>
+      </c>
+      <c r="E39">
+        <v>-0.03276810285880982</v>
+      </c>
+      <c r="F39">
+        <v>-0.08730092921968489</v>
+      </c>
+      <c r="G39">
+        <v>0.01309970669873841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01658039372722105</v>
+        <v>0.01532808782636932</v>
       </c>
       <c r="C40">
-        <v>-0.03984215076571797</v>
+        <v>0.04001261643517279</v>
       </c>
       <c r="D40">
-        <v>-0.03356843595604293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03521629687454801</v>
+      </c>
+      <c r="E40">
+        <v>-0.08515834629938786</v>
+      </c>
+      <c r="F40">
+        <v>-0.07065428194007517</v>
+      </c>
+      <c r="G40">
+        <v>-0.04383817572795543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01661266882582064</v>
+        <v>0.01760701626039</v>
       </c>
       <c r="C41">
-        <v>-0.007259013523576729</v>
+        <v>0.006604275556413648</v>
       </c>
       <c r="D41">
-        <v>0.006938366017777127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01284925553010728</v>
+      </c>
+      <c r="E41">
+        <v>-0.04784447016388196</v>
+      </c>
+      <c r="F41">
+        <v>-0.06515977940276499</v>
+      </c>
+      <c r="G41">
+        <v>-0.004029266427391228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.001538393015031787</v>
+        <v>0.001010024951445254</v>
       </c>
       <c r="C42">
-        <v>-0.005142261910759336</v>
+        <v>0.003057527756934999</v>
       </c>
       <c r="D42">
-        <v>0.003294273987041148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003758098288005107</v>
+      </c>
+      <c r="E42">
+        <v>8.416686271847792e-05</v>
+      </c>
+      <c r="F42">
+        <v>0.007738191424142816</v>
+      </c>
+      <c r="G42">
+        <v>0.0007132551917505356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03659803247384793</v>
+        <v>0.02872334804757646</v>
       </c>
       <c r="C43">
-        <v>-0.02459304272292993</v>
+        <v>0.0220572511617627</v>
       </c>
       <c r="D43">
-        <v>-0.01473717327132311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03802310601578641</v>
+      </c>
+      <c r="E43">
+        <v>-0.06036428431848292</v>
+      </c>
+      <c r="F43">
+        <v>-0.07447747471758626</v>
+      </c>
+      <c r="G43">
+        <v>-0.02346811809037822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02079193781320025</v>
+        <v>0.01400652868121919</v>
       </c>
       <c r="C44">
-        <v>-0.05725818224017164</v>
+        <v>0.0526771806937519</v>
       </c>
       <c r="D44">
-        <v>-0.01537199272462707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03802154879908055</v>
+      </c>
+      <c r="E44">
+        <v>-0.07552143900468505</v>
+      </c>
+      <c r="F44">
+        <v>-0.0760618805424545</v>
+      </c>
+      <c r="G44">
+        <v>0.002689331704468994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005492674220390354</v>
+        <v>0.007498153985318514</v>
       </c>
       <c r="C46">
-        <v>-0.02273106490791063</v>
+        <v>0.02557896235278933</v>
       </c>
       <c r="D46">
-        <v>0.02569168079420789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009171397474350061</v>
+      </c>
+      <c r="E46">
+        <v>-0.04472972599066679</v>
+      </c>
+      <c r="F46">
+        <v>-0.1000021310614108</v>
+      </c>
+      <c r="G46">
+        <v>-0.001636024900018361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08469492344222943</v>
+        <v>0.08718732995419178</v>
       </c>
       <c r="C47">
-        <v>-0.06367331190284722</v>
+        <v>0.07970156269800227</v>
       </c>
       <c r="D47">
-        <v>0.02915247680624916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02031597541419092</v>
+      </c>
+      <c r="E47">
+        <v>-0.06124135271387627</v>
+      </c>
+      <c r="F47">
+        <v>-0.07332393167720146</v>
+      </c>
+      <c r="G47">
+        <v>-0.05233863706016765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01991600543600087</v>
+        <v>0.01575873796609117</v>
       </c>
       <c r="C48">
-        <v>-0.01275830031940899</v>
+        <v>0.0174089842463332</v>
       </c>
       <c r="D48">
-        <v>0.01659216268354467</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01431977217264073</v>
+      </c>
+      <c r="E48">
+        <v>-0.05696886990023849</v>
+      </c>
+      <c r="F48">
+        <v>-0.08980712566808609</v>
+      </c>
+      <c r="G48">
+        <v>-0.0101986210006697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08425562380287879</v>
+        <v>0.07084787047384544</v>
       </c>
       <c r="C50">
-        <v>-0.0678861390930097</v>
+        <v>0.07199677005414463</v>
       </c>
       <c r="D50">
-        <v>0.03640047154390888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007941843918191992</v>
+      </c>
+      <c r="E50">
+        <v>-0.06247603297283755</v>
+      </c>
+      <c r="F50">
+        <v>-0.06095426805992629</v>
+      </c>
+      <c r="G50">
+        <v>-0.07370804052877376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01715191233238524</v>
+        <v>0.01073914326253009</v>
       </c>
       <c r="C51">
-        <v>-0.04680445186025559</v>
+        <v>0.03411588793110032</v>
       </c>
       <c r="D51">
-        <v>-0.02139563297070867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04795955031683569</v>
+      </c>
+      <c r="E51">
+        <v>-0.03699091223239023</v>
+      </c>
+      <c r="F51">
+        <v>-0.07701284241530482</v>
+      </c>
+      <c r="G51">
+        <v>0.01860695691629468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08599442398762683</v>
+        <v>0.09388796224689452</v>
       </c>
       <c r="C53">
-        <v>-0.07060613649838579</v>
+        <v>0.08658117625939299</v>
       </c>
       <c r="D53">
-        <v>0.04088401760334288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04323718059594214</v>
+      </c>
+      <c r="E53">
+        <v>-0.05724523269923629</v>
+      </c>
+      <c r="F53">
+        <v>-0.0838566231501041</v>
+      </c>
+      <c r="G53">
+        <v>-0.06463012258884884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03373559540038776</v>
+        <v>0.02815126305328812</v>
       </c>
       <c r="C54">
-        <v>-0.02358739006961218</v>
+        <v>0.02637262549067424</v>
       </c>
       <c r="D54">
-        <v>0.006867831679751068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02742509064129689</v>
+      </c>
+      <c r="E54">
+        <v>-0.04913658489239013</v>
+      </c>
+      <c r="F54">
+        <v>-0.0960372127460334</v>
+      </c>
+      <c r="G54">
+        <v>-0.006727943281971064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07766573633117235</v>
+        <v>0.08527755397949528</v>
       </c>
       <c r="C55">
-        <v>-0.05547893752599075</v>
+        <v>0.0703952316172439</v>
       </c>
       <c r="D55">
-        <v>0.04767832950273986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04999068248270396</v>
+      </c>
+      <c r="E55">
+        <v>-0.04537219542533442</v>
+      </c>
+      <c r="F55">
+        <v>-0.05952508166608789</v>
+      </c>
+      <c r="G55">
+        <v>-0.0525543526417877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1512200588399276</v>
+        <v>0.146820920043619</v>
       </c>
       <c r="C56">
-        <v>-0.08649934343013133</v>
+        <v>0.1038298149854881</v>
       </c>
       <c r="D56">
-        <v>0.05234809035312873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05389635591158121</v>
+      </c>
+      <c r="E56">
+        <v>-0.04710826088067237</v>
+      </c>
+      <c r="F56">
+        <v>-0.04414307846705485</v>
+      </c>
+      <c r="G56">
+        <v>-0.06003787499140234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0006754509181177756</v>
+        <v>3.535962003926736e-05</v>
       </c>
       <c r="C57">
-        <v>-0.0009962912088808844</v>
+        <v>0.0008050072172852029</v>
       </c>
       <c r="D57">
-        <v>-0.01738913096788012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01316630711880106</v>
+      </c>
+      <c r="E57">
+        <v>-0.008100184694716312</v>
+      </c>
+      <c r="F57">
+        <v>-0.007765911281397332</v>
+      </c>
+      <c r="G57">
+        <v>-0.004269989263032951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06755314670078096</v>
+        <v>0.02899937882139536</v>
       </c>
       <c r="C58">
-        <v>-0.02017869009374113</v>
+        <v>0.03818288058988344</v>
       </c>
       <c r="D58">
-        <v>-0.7280017587525696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4009716411086593</v>
+      </c>
+      <c r="E58">
+        <v>-0.674424521840992</v>
+      </c>
+      <c r="F58">
+        <v>0.5351705222362538</v>
+      </c>
+      <c r="G58">
+        <v>0.06011667949539395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1262115373233896</v>
+        <v>0.1443656036349105</v>
       </c>
       <c r="C59">
-        <v>0.2065657415650799</v>
+        <v>-0.1876257328402547</v>
       </c>
       <c r="D59">
-        <v>-0.01733767840195546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03007008149334199</v>
+      </c>
+      <c r="E59">
+        <v>-0.0286930124835045</v>
+      </c>
+      <c r="F59">
+        <v>-0.0233849005650977</v>
+      </c>
+      <c r="G59">
+        <v>0.02859007519756079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3135639435497494</v>
+        <v>0.283593066915848</v>
       </c>
       <c r="C60">
-        <v>-0.07529575600583849</v>
+        <v>0.09659343144738401</v>
       </c>
       <c r="D60">
-        <v>-0.1212922465892499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2269341732026759</v>
+      </c>
+      <c r="E60">
+        <v>0.2623705173115195</v>
+      </c>
+      <c r="F60">
+        <v>0.09374042219507857</v>
+      </c>
+      <c r="G60">
+        <v>-0.0434431457836302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04326089402467611</v>
+        <v>0.04087386328188729</v>
       </c>
       <c r="C61">
-        <v>-0.06232836781817823</v>
+        <v>0.06211743094666454</v>
       </c>
       <c r="D61">
-        <v>-0.01432350533330005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04491031740482381</v>
+      </c>
+      <c r="E61">
+        <v>-0.03644531257227232</v>
+      </c>
+      <c r="F61">
+        <v>-0.07835909463489722</v>
+      </c>
+      <c r="G61">
+        <v>-0.01307365078263961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01689280012936045</v>
+        <v>0.0150979324705262</v>
       </c>
       <c r="C63">
-        <v>-0.03515782937853656</v>
+        <v>0.0325166055288996</v>
       </c>
       <c r="D63">
-        <v>0.008084593000914049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02089313993486986</v>
+      </c>
+      <c r="E63">
+        <v>-0.04825041429814973</v>
+      </c>
+      <c r="F63">
+        <v>-0.07034569851353242</v>
+      </c>
+      <c r="G63">
+        <v>-0.02916268286473679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05192467644829591</v>
+        <v>0.05579587165596852</v>
       </c>
       <c r="C64">
-        <v>-0.03937372884055193</v>
+        <v>0.05514314381793404</v>
       </c>
       <c r="D64">
-        <v>0.008836676904870191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005648759511261409</v>
+      </c>
+      <c r="E64">
+        <v>-0.02916364140720958</v>
+      </c>
+      <c r="F64">
+        <v>-0.08343580791412757</v>
+      </c>
+      <c r="G64">
+        <v>-0.01122530488341015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09178684628224333</v>
+        <v>0.06901804819681694</v>
       </c>
       <c r="C65">
-        <v>-0.02307828591531644</v>
+        <v>0.03112958910388142</v>
       </c>
       <c r="D65">
-        <v>-0.04623241299459602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08417085024557888</v>
+      </c>
+      <c r="E65">
+        <v>-0.04332356021524621</v>
+      </c>
+      <c r="F65">
+        <v>-0.009451058843062176</v>
+      </c>
+      <c r="G65">
+        <v>-0.001346217652943448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06660127076912643</v>
+        <v>0.05244515058608389</v>
       </c>
       <c r="C66">
-        <v>-0.1000939084589012</v>
+        <v>0.09022089539109909</v>
       </c>
       <c r="D66">
-        <v>-0.04304694336341264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0795554536528137</v>
+      </c>
+      <c r="E66">
+        <v>-0.04101334226593267</v>
+      </c>
+      <c r="F66">
+        <v>-0.088972636005998</v>
+      </c>
+      <c r="G66">
+        <v>-0.004111290046510633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05308612151492698</v>
+        <v>0.04624734243151607</v>
       </c>
       <c r="C67">
-        <v>-0.03226578812226245</v>
+        <v>0.0309406650644552</v>
       </c>
       <c r="D67">
-        <v>0.00965378673880681</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01106865954468745</v>
+      </c>
+      <c r="E67">
+        <v>-0.02353205844106921</v>
+      </c>
+      <c r="F67">
+        <v>-0.05060204782506968</v>
+      </c>
+      <c r="G67">
+        <v>-0.0123371025077557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1085369961235375</v>
+        <v>0.1498536351991451</v>
       </c>
       <c r="C68">
-        <v>0.2908130051127935</v>
+        <v>-0.2517674394250125</v>
       </c>
       <c r="D68">
-        <v>0.01272708046343451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02159398835549314</v>
+      </c>
+      <c r="E68">
+        <v>-0.0414015247354784</v>
+      </c>
+      <c r="F68">
+        <v>-0.01526209966513085</v>
+      </c>
+      <c r="G68">
+        <v>-0.01095016531452062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09087430365095985</v>
+        <v>0.08702568745381015</v>
       </c>
       <c r="C69">
-        <v>-0.0634251158111425</v>
+        <v>0.08577058369217423</v>
       </c>
       <c r="D69">
-        <v>0.04158131621191226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01100420139197539</v>
+      </c>
+      <c r="E69">
+        <v>-0.04446174552151121</v>
+      </c>
+      <c r="F69">
+        <v>-0.09112029849702541</v>
+      </c>
+      <c r="G69">
+        <v>-0.02993146725257243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1047080823482142</v>
+        <v>0.1421405314597589</v>
       </c>
       <c r="C71">
-        <v>0.2518963925829572</v>
+        <v>-0.2337788382876301</v>
       </c>
       <c r="D71">
-        <v>-0.01629806194963847</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009405276203243655</v>
+      </c>
+      <c r="E71">
+        <v>-0.06659961485356442</v>
+      </c>
+      <c r="F71">
+        <v>-0.05524921448165471</v>
+      </c>
+      <c r="G71">
+        <v>-0.03521662265861045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08899959435456786</v>
+        <v>0.0972112637810474</v>
       </c>
       <c r="C72">
-        <v>-0.04464661881295933</v>
+        <v>0.05423668667573381</v>
       </c>
       <c r="D72">
-        <v>-0.0006828196399206735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02438154402494969</v>
+      </c>
+      <c r="E72">
+        <v>-0.02186168679924301</v>
+      </c>
+      <c r="F72">
+        <v>-0.07429842156458157</v>
+      </c>
+      <c r="G72">
+        <v>-0.02922974356450793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4222782851856255</v>
+        <v>0.3471644614846689</v>
       </c>
       <c r="C73">
-        <v>-0.04746434894392717</v>
+        <v>0.07852487149469321</v>
       </c>
       <c r="D73">
-        <v>-0.3243113356170969</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4765623789174008</v>
+      </c>
+      <c r="E73">
+        <v>0.4653029393053555</v>
+      </c>
+      <c r="F73">
+        <v>0.2536849757296021</v>
+      </c>
+      <c r="G73">
+        <v>-0.09708555713025306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1152427412540095</v>
+        <v>0.1116862618742058</v>
       </c>
       <c r="C74">
-        <v>-0.09780442657192558</v>
+        <v>0.09990175113990639</v>
       </c>
       <c r="D74">
-        <v>0.02878044205401669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03459157563841901</v>
+      </c>
+      <c r="E74">
+        <v>-0.06523938822221141</v>
+      </c>
+      <c r="F74">
+        <v>-0.04555761331157458</v>
+      </c>
+      <c r="G74">
+        <v>-0.07347653028478875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2515095164333805</v>
+        <v>0.2570296716138258</v>
       </c>
       <c r="C75">
-        <v>-0.101525071179255</v>
+        <v>0.1319084436091587</v>
       </c>
       <c r="D75">
-        <v>0.09252856380639266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1337725384800167</v>
+      </c>
+      <c r="E75">
+        <v>-0.06538943386922506</v>
+      </c>
+      <c r="F75">
+        <v>-0.01014905064044871</v>
+      </c>
+      <c r="G75">
+        <v>-0.07630317306498592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1171282212774491</v>
+        <v>0.1286614507661272</v>
       </c>
       <c r="C76">
-        <v>-0.08851568484318459</v>
+        <v>0.101370706232112</v>
       </c>
       <c r="D76">
-        <v>0.04553703741924095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06110450356929076</v>
+      </c>
+      <c r="E76">
+        <v>-0.07059746844026818</v>
+      </c>
+      <c r="F76">
+        <v>-0.06282657480559349</v>
+      </c>
+      <c r="G76">
+        <v>-0.06284655044592166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07930760560443989</v>
+        <v>0.06278441664121527</v>
       </c>
       <c r="C77">
-        <v>-0.05173177538861341</v>
+        <v>0.07013719271866843</v>
       </c>
       <c r="D77">
-        <v>-0.06358472341260735</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06409044982921404</v>
+      </c>
+      <c r="E77">
+        <v>-0.09125538655083019</v>
+      </c>
+      <c r="F77">
+        <v>-0.1116346179543829</v>
+      </c>
+      <c r="G77">
+        <v>0.1343711004891329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0504514038420372</v>
+        <v>0.04354414114156097</v>
       </c>
       <c r="C78">
-        <v>-0.04101824996520601</v>
+        <v>0.05646724880278732</v>
       </c>
       <c r="D78">
-        <v>-0.02710095620019678</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07108268291291171</v>
+      </c>
+      <c r="E78">
+        <v>-0.04534733440895066</v>
+      </c>
+      <c r="F78">
+        <v>-0.09704800020500957</v>
+      </c>
+      <c r="G78">
+        <v>-0.005482661304728352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02552206682345963</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03826067222843775</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06239544792110911</v>
+      </c>
+      <c r="E79">
+        <v>-0.05132621322628318</v>
+      </c>
+      <c r="F79">
+        <v>-0.03921558558179686</v>
+      </c>
+      <c r="G79">
+        <v>-0.06821865290461385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04680630536833047</v>
+        <v>0.03470272070338426</v>
       </c>
       <c r="C80">
-        <v>-0.05034863388486045</v>
+        <v>0.05544807181214914</v>
       </c>
       <c r="D80">
-        <v>-0.03408934923183539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0451159748067179</v>
+      </c>
+      <c r="E80">
+        <v>-0.01742626406123203</v>
+      </c>
+      <c r="F80">
+        <v>-0.03509364585659443</v>
+      </c>
+      <c r="G80">
+        <v>0.04655986257253501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1424698345090762</v>
+        <v>0.1407888336423282</v>
       </c>
       <c r="C81">
-        <v>-0.07016117465857781</v>
+        <v>0.0959073595891078</v>
       </c>
       <c r="D81">
-        <v>0.06337001550644923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1018077958435257</v>
+      </c>
+      <c r="E81">
+        <v>-0.07808459309351265</v>
+      </c>
+      <c r="F81">
+        <v>-0.008827613404081723</v>
+      </c>
+      <c r="G81">
+        <v>-0.05623037710298943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1600013121837443</v>
+        <v>0.2016140455620793</v>
       </c>
       <c r="C82">
-        <v>-0.05515500883880309</v>
+        <v>0.1357114666961131</v>
       </c>
       <c r="D82">
-        <v>0.1556034115268685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2350726863388886</v>
+      </c>
+      <c r="E82">
+        <v>0.008358678908713764</v>
+      </c>
+      <c r="F82">
+        <v>-0.1018104853553936</v>
+      </c>
+      <c r="G82">
+        <v>-0.04517558204458472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03641845759377886</v>
+        <v>0.02806521903128292</v>
       </c>
       <c r="C83">
-        <v>-0.0234383419685166</v>
+        <v>0.04145975658135181</v>
       </c>
       <c r="D83">
-        <v>-0.03798716937410824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03438121921963893</v>
+      </c>
+      <c r="E83">
+        <v>-0.02040811479634239</v>
+      </c>
+      <c r="F83">
+        <v>-0.04487745841055284</v>
+      </c>
+      <c r="G83">
+        <v>0.01999180729527551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205647741832773</v>
+        <v>0.2044476972533052</v>
       </c>
       <c r="C85">
-        <v>-0.09927663907951746</v>
+        <v>0.1193213234907435</v>
       </c>
       <c r="D85">
-        <v>0.1153994121981813</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1005592264775538</v>
+      </c>
+      <c r="E85">
+        <v>0.005663271298480235</v>
+      </c>
+      <c r="F85">
+        <v>0.01926144428545053</v>
+      </c>
+      <c r="G85">
+        <v>-0.1279578565177633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01147976817443732</v>
+        <v>0.01090283862333128</v>
       </c>
       <c r="C86">
-        <v>-0.03410166236540637</v>
+        <v>0.03080592560333081</v>
       </c>
       <c r="D86">
-        <v>-0.0464138927354319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0662558784823897</v>
+      </c>
+      <c r="E86">
+        <v>-0.06173021010047637</v>
+      </c>
+      <c r="F86">
+        <v>-0.1277381938315314</v>
+      </c>
+      <c r="G86">
+        <v>0.0090065158462344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02304755012505201</v>
+        <v>0.02162130384175354</v>
       </c>
       <c r="C87">
-        <v>-0.0199375551595026</v>
+        <v>0.02161320390863828</v>
       </c>
       <c r="D87">
-        <v>-0.09665911260177003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08829612130696653</v>
+      </c>
+      <c r="E87">
+        <v>-0.1115809387428026</v>
+      </c>
+      <c r="F87">
+        <v>-0.07630052746464504</v>
+      </c>
+      <c r="G87">
+        <v>0.03590476460630108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1072240962035963</v>
+        <v>0.09195605128520505</v>
       </c>
       <c r="C88">
-        <v>-0.06831449391106335</v>
+        <v>0.06275439543096191</v>
       </c>
       <c r="D88">
-        <v>0.03078980518479543</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006634378105865544</v>
+      </c>
+      <c r="E88">
+        <v>-0.0412975376312778</v>
+      </c>
+      <c r="F88">
+        <v>-0.07078261227004586</v>
+      </c>
+      <c r="G88">
+        <v>0.02834409461826819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1665435774733883</v>
+        <v>0.2209897398912789</v>
       </c>
       <c r="C89">
-        <v>0.3844116060999264</v>
+        <v>-0.3793062318770283</v>
       </c>
       <c r="D89">
-        <v>0.009815458347109564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008178331230200677</v>
+      </c>
+      <c r="E89">
+        <v>-0.06209622459084144</v>
+      </c>
+      <c r="F89">
+        <v>-0.07191165587583509</v>
+      </c>
+      <c r="G89">
+        <v>0.06301494916480067</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1620135586961492</v>
+        <v>0.1999772438741652</v>
       </c>
       <c r="C90">
-        <v>0.3487434865953271</v>
+        <v>-0.3154435415591606</v>
       </c>
       <c r="D90">
-        <v>0.02964973049314118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01746905864624121</v>
+      </c>
+      <c r="E90">
+        <v>-0.06909203621512768</v>
+      </c>
+      <c r="F90">
+        <v>-0.04064743304071607</v>
+      </c>
+      <c r="G90">
+        <v>0.01112173029980138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1930408137367363</v>
+        <v>0.1863814142136969</v>
       </c>
       <c r="C91">
-        <v>-0.1157162227692863</v>
+        <v>0.1398444986727588</v>
       </c>
       <c r="D91">
-        <v>0.08431925494389454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.111376312051902</v>
+      </c>
+      <c r="E91">
+        <v>-0.05720442413504054</v>
+      </c>
+      <c r="F91">
+        <v>-0.0334926758257881</v>
+      </c>
+      <c r="G91">
+        <v>-0.06090805057233648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.156080708637918</v>
+        <v>0.1818171259338114</v>
       </c>
       <c r="C92">
-        <v>0.2958590418075002</v>
+        <v>-0.2839831759951035</v>
       </c>
       <c r="D92">
-        <v>0.01869766839901555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006738605043233108</v>
+      </c>
+      <c r="E92">
+        <v>-0.07141869355501</v>
+      </c>
+      <c r="F92">
+        <v>-0.08162765367895579</v>
+      </c>
+      <c r="G92">
+        <v>0.007176746257942133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1847217241060434</v>
+        <v>0.2243285634754816</v>
       </c>
       <c r="C93">
-        <v>0.3494234388880536</v>
+        <v>-0.320071555892511</v>
       </c>
       <c r="D93">
-        <v>0.02161787825107489</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003600599592831329</v>
+      </c>
+      <c r="E93">
+        <v>-0.05230723539746292</v>
+      </c>
+      <c r="F93">
+        <v>-0.03886601075374215</v>
+      </c>
+      <c r="G93">
+        <v>-0.02726187640101381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3409774681430007</v>
+        <v>0.3429562252299789</v>
       </c>
       <c r="C94">
-        <v>-0.1327807895949799</v>
+        <v>0.1836064936390685</v>
       </c>
       <c r="D94">
-        <v>0.432190930876521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4953982156207394</v>
+      </c>
+      <c r="E94">
+        <v>-0.05101692714024483</v>
+      </c>
+      <c r="F94">
+        <v>0.4398769116489495</v>
+      </c>
+      <c r="G94">
+        <v>0.3349580210885083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1138624412072699</v>
+        <v>0.08569961968480692</v>
       </c>
       <c r="C95">
-        <v>-0.07462682929623088</v>
+        <v>0.06774226331208705</v>
       </c>
       <c r="D95">
-        <v>-0.1128095883552071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1712572991454745</v>
+      </c>
+      <c r="E95">
+        <v>0.09483388077679399</v>
+      </c>
+      <c r="F95">
+        <v>-0.2229592809111026</v>
+      </c>
+      <c r="G95">
+        <v>0.8642064790986933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.196796695076011</v>
+        <v>0.1874341878685563</v>
       </c>
       <c r="C98">
-        <v>-0.01611000550251301</v>
+        <v>0.04313211068916629</v>
       </c>
       <c r="D98">
-        <v>-0.1211418841118102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1900214368503586</v>
+      </c>
+      <c r="E98">
+        <v>0.1474047861374728</v>
+      </c>
+      <c r="F98">
+        <v>0.03281973990946284</v>
+      </c>
+      <c r="G98">
+        <v>-0.1013975732121042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009651495959972134</v>
+        <v>0.005995343868860221</v>
       </c>
       <c r="C101">
-        <v>-0.02817773806921467</v>
+        <v>0.0273266737515924</v>
       </c>
       <c r="D101">
-        <v>0.01984479694847925</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01812885193107449</v>
+      </c>
+      <c r="E101">
+        <v>-0.03937358448320604</v>
+      </c>
+      <c r="F101">
+        <v>-0.08799097667763257</v>
+      </c>
+      <c r="G101">
+        <v>-0.005135954224967284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1240134528992546</v>
+        <v>0.1244443677133989</v>
       </c>
       <c r="C102">
-        <v>-0.07011043582081715</v>
+        <v>0.09976955902273954</v>
       </c>
       <c r="D102">
-        <v>0.03106690667260211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0485602245571841</v>
+      </c>
+      <c r="E102">
+        <v>0.008830509891697303</v>
+      </c>
+      <c r="F102">
+        <v>-0.04284648047210583</v>
+      </c>
+      <c r="G102">
+        <v>-0.02321924726670674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
